--- a/templates/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\3ASY03_MetabolomicsMassSpec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0E15BB-250E-4EF5-A4AA-C7FA6480D705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D34B03B-8500-4452-B9EB-7B5F39A9FFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY03_MetabolomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -43,11 +43,11 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4EA42A12-6C89-46B0-9225-BF00D9B2DDCE}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The unique identifier of this template. It will be auto generated.
-Antwort:
+Reply:
     id=b80a7c05-d6eb-428d-b843-bceeb76af642</t>
       </text>
     </comment>
@@ -790,7 +790,7 @@
     <t>http://purl.obolibrary.org/obo/MS_1000081</t>
   </si>
   <si>
-    <t>1.1.7</t>
+    <t>1.1.8</t>
   </si>
 </sst>
 </file>
@@ -992,8 +992,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{9AC74787-D67A-4B33-A1D2-9A84BA6D8808}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1401,7 +1401,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
@@ -2148,7 +2148,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
@@ -2378,7 +2378,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>

--- a/templates/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/3ASY03_MetabolomicsMassSpec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D34B03B-8500-4452-B9EB-7B5F39A9FFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28926BCC-5E4C-4583-8F33-B973E12EBB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY03_MetabolomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,14 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={4EA42A12-6C89-46B0-9225-BF00D9B2DDCE}</author>
+    <author>tc={B92A4857-C13E-4E51-8054-4C16283480AA}</author>
+    <author>tc={706F8ADA-2848-459E-96FA-C8124A3DE149}</author>
+    <author>tc={724E12A0-D147-4F23-9431-AA84655B2004}</author>
+    <author>tc={8F73237F-4B77-46AE-A6E2-07472B599914}</author>
+    <author>tc={E9EE0660-C686-4D2F-8C9C-54531867DB56}</author>
+    <author>tc={A7289A18-1DD6-4AA7-AD56-569C3FDA3C1D}</author>
+    <author>tc={5E301DCC-05A8-42A7-BF29-A2BB145CD1E2}</author>
+    <author>tc={4D4D0C14-DC90-4096-A1E3-640F48635E0A}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4EA42A12-6C89-46B0-9225-BF00D9B2DDCE}">
@@ -51,6 +59,70 @@
     id=b80a7c05-d6eb-428d-b843-bceeb76af642</t>
       </text>
     </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{B92A4857-C13E-4E51-8054-4C16283480AA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate template.</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{706F8ADA-2848-459E-96FA-C8124A3DE149}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The current version of this template in SemVer notation.</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{724E12A0-D147-4F23-9431-AA84655B2004}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The description of this template. Use few sentences for succinctness.</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="4" shapeId="0" xr:uid="{8F73237F-4B77-46AE-A6E2-07472B599914}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="5" shapeId="0" xr:uid="{E9EE0660-C686-4D2F-8C9C-54531867DB56}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate annotation table in the workbook of the template's excel file.</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="6" shapeId="0" xr:uid="{A7289A18-1DD6-4AA7-AD56-569C3FDA3C1D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="7" shapeId="0" xr:uid="{5E301DCC-05A8-42A7-BF29-A2BB145CD1E2}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{4D4D0C14-DC90-4096-A1E3-640F48635E0A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The author(s) of this template.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -256,9 +328,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Docslink</t>
-  </si>
-  <si>
     <t>Organisation</t>
   </si>
   <si>
@@ -316,18 +385,6 @@
     <t>Authors Affiliation</t>
   </si>
   <si>
-    <t>#AUTHORS ROLES list</t>
-  </si>
-  <si>
-    <t>Authors Roles</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Accession Number</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Source REF</t>
-  </si>
-  <si>
     <t>b80a7c05-d6eb-428d-b843-bceeb76af642</t>
   </si>
   <si>
@@ -791,13 +848,28 @@
   </si>
   <si>
     <t>1.1.8</t>
+  </si>
+  <si>
+    <t>DataPLANT</t>
+  </si>
+  <si>
+    <t>Authors ORCID</t>
+  </si>
+  <si>
+    <t>Authors Role</t>
+  </si>
+  <si>
+    <t>Authors Role Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Role Term Source REF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -819,6 +891,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1018,6 +1096,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Oliver Maus" id="{2B518007-AAA5-437D-AD4B-771F37659DA1}" userId="Oliver Maus" providerId="None"/>
+  <person displayName="Kevin F" id="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" userId="b000b0ea35d13fa4" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -1361,6 +1440,30 @@
   <threadedComment ref="A1" dT="2021-11-03T16:55:23.03" personId="{2B518007-AAA5-437D-AD4B-771F37659DA1}" id="{E86439AF-DCCD-4AAE-9ADE-4D9D287E5F82}" parentId="{4EA42A12-6C89-46B0-9225-BF00D9B2DDCE}">
     <text>id=b80a7c05-d6eb-428d-b843-bceeb76af642</text>
   </threadedComment>
+  <threadedComment ref="A2" dT="2022-03-04T14:02:18.75" personId="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" id="{B92A4857-C13E-4E51-8054-4C16283480AA}">
+    <text>The name of the Swate template.</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2022-03-04T14:02:18.76" personId="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" id="{706F8ADA-2848-459E-96FA-C8124A3DE149}">
+    <text>The current version of this template in SemVer notation.</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2022-03-04T14:02:18.76" personId="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" id="{724E12A0-D147-4F23-9431-AA84655B2004}">
+    <text>The description of this template. Use few sentences for succinctness.</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2022-03-04T14:02:18.76" personId="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" id="{8F73237F-4B77-46AE-A6E2-07472B599914}">
+    <text>The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2022-03-04T14:02:18.76" personId="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" id="{E9EE0660-C686-4D2F-8C9C-54531867DB56}">
+    <text>The name of the Swate annotation table in the workbook of the template's excel file.</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2022-03-04T14:02:18.76" personId="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" id="{A7289A18-1DD6-4AA7-AD56-569C3FDA3C1D}">
+    <text>A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2022-03-04T14:02:18.77" personId="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" id="{5E301DCC-05A8-42A7-BF29-A2BB145CD1E2}">
+    <text>A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2022-03-04T14:02:18.77" personId="{CF57BF67-24C4-49D6-8AA6-F7F74FCD767F}" id="{4D4D0C14-DC90-4096-A1E3-640F48635E0A}">
+    <text>The author(s) of this template.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1399,7 +1502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1657,480 +1760,480 @@
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q2" t="s">
+        <v>205</v>
+      </c>
+      <c r="R2" t="s">
+        <v>233</v>
+      </c>
+      <c r="S2" t="s">
+        <v>233</v>
+      </c>
+      <c r="T2" t="s">
         <v>210</v>
       </c>
-      <c r="R2" t="s">
-        <v>238</v>
-      </c>
-      <c r="S2" t="s">
-        <v>238</v>
-      </c>
-      <c r="T2" t="s">
-        <v>215</v>
-      </c>
       <c r="U2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="V2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="W2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="X2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Y2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Z2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF2" t="s">
         <v>218</v>
       </c>
-      <c r="AA2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL2" t="s">
         <v>222</v>
       </c>
-      <c r="AD2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>227</v>
-      </c>
       <c r="AM2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AN2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AO2" s="13">
         <v>50</v>
       </c>
       <c r="AP2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AQ2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AR2" s="13">
         <v>1300</v>
       </c>
       <c r="AS2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC2" t="s">
         <v>238</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>241</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>236</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="P3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="R3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="S3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="W3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="X3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Y3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Z3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF3" t="s">
         <v>219</v>
       </c>
-      <c r="AA3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>224</v>
-      </c>
       <c r="AG3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AH3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AI3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AJ3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AK3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AL3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AM3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AN3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AO3" s="13">
         <v>60</v>
       </c>
       <c r="AP3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AQ3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AR3" s="13">
         <v>1200</v>
       </c>
       <c r="AS3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AT3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AU3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AV3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AW3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AX3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AY3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AZ3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="BA3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="BB3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="BC3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H4" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="K4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="S4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Z4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AA4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AB4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AO4" s="13">
         <v>50</v>
       </c>
       <c r="AP4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AQ4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AR4" s="13">
         <v>650</v>
       </c>
       <c r="AS4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AT4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AU4" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AV4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AW4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AX4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="AY4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="AZ4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5" t="s">
         <v>197</v>
       </c>
-      <c r="C5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D5" t="s">
-        <v>238</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J5" t="s">
+        <v>233</v>
+      </c>
+      <c r="K5" t="s">
         <v>202</v>
       </c>
-      <c r="I5" t="s">
-        <v>238</v>
-      </c>
-      <c r="J5" t="s">
-        <v>238</v>
-      </c>
-      <c r="K5" t="s">
-        <v>207</v>
-      </c>
       <c r="L5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="R5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="S5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Z5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="AA5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AB5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AU5" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AV5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AW5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AX5" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AY5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="AZ5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="I6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="R6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="S6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2144,9 +2247,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3A8CD2-D7D8-47D1-8355-3B292012E9B8}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2160,7 +2265,7 @@
         <v>62</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2168,7 +2273,7 @@
         <v>63</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2176,7 +2281,7 @@
         <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2184,42 +2289,44 @@
         <v>65</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>93</v>
-      </c>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>94</v>
-      </c>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -2228,143 +2335,154 @@
       <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>85</v>
+        <v>241</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="8"/>
+        <v>243</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2396,40 +2514,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2437,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -2463,19 +2581,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -2489,34 +2607,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L4" s="12"/>
     </row>
@@ -2525,34 +2643,34 @@
         <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>161</v>
-      </c>
       <c r="I5" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L5" s="12"/>
     </row>
@@ -2561,31 +2679,31 @@
         <v>8</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>120</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
@@ -2595,31 +2713,31 @@
         <v>11</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
@@ -2629,31 +2747,31 @@
         <v>14</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
@@ -2663,31 +2781,31 @@
         <v>17</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -2697,31 +2815,31 @@
         <v>20</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
@@ -2731,31 +2849,31 @@
         <v>23</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
@@ -2765,31 +2883,31 @@
         <v>26</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
@@ -2799,31 +2917,31 @@
         <v>29</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
@@ -2833,31 +2951,31 @@
         <v>32</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
@@ -2867,31 +2985,31 @@
         <v>35</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
@@ -2901,31 +3019,31 @@
         <v>38</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
@@ -2935,34 +3053,34 @@
         <v>41</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L17" s="12"/>
     </row>
@@ -2971,34 +3089,34 @@
         <v>44</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="E18" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -3007,31 +3125,31 @@
         <v>47</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
@@ -3041,31 +3159,31 @@
         <v>50</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
@@ -3075,31 +3193,31 @@
         <v>53</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
@@ -3109,31 +3227,31 @@
         <v>56</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="I22" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>158</v>
-      </c>
       <c r="J22" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -3143,31 +3261,31 @@
         <v>59</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J23" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>159</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
